--- a/ajout-RC/ig/StructureDefinition-nde-eventdeclaration.xlsx
+++ b/ajout-RC/ig/StructureDefinition-nde-eventdeclaration.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/StructureDefinition/NdE_EventDeclarationNdE</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/nde-eventdeclaration</t>
   </si>
   <si>
     <t>Version</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01</t>
+    <t>2025-12-16T07:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,7 +263,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}event-subject:L’un des attributs subject ou about doit être présent {count(subject) = 1 xor count(about) = 1}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}event-subject:L’un des attributs subject ou about doit être présent {subject.exists() xor about.exists()}</t>
   </si>
   <si>
     <t>Request</t>

--- a/ajout-RC/ig/StructureDefinition-nde-eventdeclaration.xlsx
+++ b/ajout-RC/ig/StructureDefinition-nde-eventdeclaration.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-16T07:50:40+00:00</t>
+    <t>2026-01-02T15:03:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/StructureDefinition-nde-eventdeclaration.xlsx
+++ b/ajout-RC/ig/StructureDefinition-nde-eventdeclaration.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T15:03:02+00:00</t>
+    <t>2026-01-09T09:23:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/StructureDefinition-nde-eventdeclaration.xlsx
+++ b/ajout-RC/ig/StructureDefinition-nde-eventdeclaration.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/nde-eventdeclaration</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/nde-eventdeclaration</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T09:23:40+00:00</t>
+    <t>2026-01-15T15:19:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -455,7 +455,7 @@
     <t>EventType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/event-type}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/event-type}
 </t>
   </si>
   <si>
@@ -478,7 +478,7 @@
     <t>EventTime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/event-time}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/event-time}
 </t>
   </si>
   <si>

--- a/ajout-RC/ig/StructureDefinition-nde-eventdeclaration.xlsx
+++ b/ajout-RC/ig/StructureDefinition-nde-eventdeclaration.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T15:19:42+00:00</t>
+    <t>2026-01-16T10:55:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/StructureDefinition-nde-eventdeclaration.xlsx
+++ b/ajout-RC/ig/StructureDefinition-nde-eventdeclaration.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T10:55:18+00:00</t>
+    <t>2026-01-21T09:17:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/StructureDefinition-nde-eventdeclaration.xlsx
+++ b/ajout-RC/ig/StructureDefinition-nde-eventdeclaration.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-21T09:17:46+00:00</t>
+    <t>2026-01-23T10:31:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/StructureDefinition-nde-eventdeclaration.xlsx
+++ b/ajout-RC/ig/StructureDefinition-nde-eventdeclaration.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-23T10:31:33+00:00</t>
+    <t>2026-01-30T14:49:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
